--- a/lightreborn/backend/src/main/resources/data/promotion/xlsx/promotion_status_full_sample.xlsx
+++ b/lightreborn/backend/src/main/resources/data/promotion/xlsx/promotion_status_full_sample.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\workspace\S12P31S309\lightreborn\backend\src\main\resources\data\promotion\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>주소</t>
   </si>
@@ -31,120 +36,237 @@
     <t>상태 변경 시각</t>
   </si>
   <si>
+    <t>행정동 코드</t>
+  </si>
+  <si>
+    <t>행정동 이름</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 중앙동로 90</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 양주동로 42</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 삼성동로 23</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 강서동로 78</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 서창동로 96</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 소주동로 79</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 평산동로 60</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 덕계동로 62</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 물금읍로 95</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 동면로 94</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 원동면로 36</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 상북면로 32</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 하북면로 82</t>
+  </si>
+  <si>
+    <t>현수막</t>
+  </si>
+  <si>
+    <t>카페</t>
+  </si>
+  <si>
+    <t>pc방</t>
+  </si>
+  <si>
+    <t>약국</t>
+  </si>
+  <si>
+    <t>편의점</t>
+  </si>
+  <si>
+    <t>중앙동</t>
+  </si>
+  <si>
+    <t>양주동</t>
+  </si>
+  <si>
+    <t>삼성동</t>
+  </si>
+  <si>
+    <t>강서동</t>
+  </si>
+  <si>
+    <t>서창동</t>
+  </si>
+  <si>
+    <t>소주동</t>
+  </si>
+  <si>
+    <t>평산동</t>
+  </si>
+  <si>
+    <t>덕계동</t>
+  </si>
+  <si>
+    <t>물금읍</t>
+  </si>
+  <si>
+    <t>동면</t>
+  </si>
+  <si>
+    <t>원동면</t>
+  </si>
+  <si>
+    <t>상북면</t>
+  </si>
+  <si>
+    <t>하북면</t>
+  </si>
+  <si>
+    <t>장소명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보물 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>홍보물 유형</t>
-  </si>
-  <si>
-    <t>행정동 코드</t>
-  </si>
-  <si>
-    <t>행정동 이름</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 중앙동로 90</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 양주동로 42</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 삼성동로 23</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 강서동로 78</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 서창동로 96</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 소주동로 79</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 평산동로 60</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 덕계동로 62</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 물금읍로 95</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 동면로 94</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 원동면로 36</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 상북면로 32</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 하북면로 82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보물 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년을 위한 상담 지원 프로그램 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 대상 취업 연계 서비스 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신건강 전문상담소 무료 이용 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인 가구 청년을 위한 지역 커뮤니티 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔고립청년 복귀 지원금 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리치료 프로그램 참여자 모집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 대상 자립 생활 교육과정 홍보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고립청년 긴급지원 핫라인 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 복지센터 신규 오픈 소식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은둔청년 위한 거리 캠페인 일정 공지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>현수막</t>
-  </si>
-  <si>
-    <t>카페</t>
-  </si>
-  <si>
-    <t>pc방</t>
-  </si>
-  <si>
-    <t>약국</t>
-  </si>
-  <si>
-    <t>편의점</t>
-  </si>
-  <si>
-    <t>중앙동</t>
-  </si>
-  <si>
-    <t>양주동</t>
-  </si>
-  <si>
-    <t>삼성동</t>
-  </si>
-  <si>
-    <t>강서동</t>
-  </si>
-  <si>
-    <t>서창동</t>
-  </si>
-  <si>
-    <t>소주동</t>
-  </si>
-  <si>
-    <t>평산동</t>
-  </si>
-  <si>
-    <t>덕계동</t>
-  </si>
-  <si>
-    <t>물금읍</t>
-  </si>
-  <si>
-    <t>동면</t>
-  </si>
-  <si>
-    <t>원동면</t>
-  </si>
-  <si>
-    <t>상북면</t>
-  </si>
-  <si>
-    <t>하북면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이린PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포즈커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸피PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이편이점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투썸플레이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브런치101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온누리약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행약국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X배너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,8 +274,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF032F62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,23 +329,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -250,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +428,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,14 +639,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.0625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.3125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,24 +674,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2">
-        <v>35.344254</v>
+        <v>35.344253999999999</v>
       </c>
       <c r="C2">
-        <v>129.045144</v>
+        <v>129.04514399999999</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -541,102 +709,138 @@
         <v>45779.5</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>48330250</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>35.346299</v>
+        <v>35.346299000000002</v>
       </c>
       <c r="C3">
-        <v>129.040195</v>
+        <v>129.04019500000001</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>45780.54166666666</v>
+        <v>45780.541666666657</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>48330253</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>35.306025</v>
+        <v>35.306024999999998</v>
       </c>
       <c r="C4">
-        <v>129.015301</v>
+        <v>129.01530099999999</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>45778.58333333334</v>
+        <v>45778.583333333336</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>48330256</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>35.365759</v>
+        <v>35.365758999999997</v>
       </c>
       <c r="C5">
-        <v>129.191173</v>
+        <v>129.19117299999999</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>45778.45833333334</v>
+        <v>45778.458333333343</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>48330259</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>35.306893</v>
+        <v>35.306893000000002</v>
       </c>
       <c r="C6">
-        <v>129.077825</v>
+        <v>129.07782499999999</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -645,76 +849,103 @@
         <v>45778.375</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>48330262</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>35.334887</v>
+        <v>35.334887000000002</v>
       </c>
       <c r="C7">
-        <v>129.024374</v>
+        <v>129.02437399999999</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45780.54166666666</v>
+        <v>45780.541666666657</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>48330265</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>35.344786</v>
+        <v>35.344785999999999</v>
       </c>
       <c r="C8">
-        <v>129.155549</v>
+        <v>129.15554900000001</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>45778.66666666666</v>
+        <v>45778.666666666657</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>48330268</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>35.348726</v>
+        <v>35.348725999999999</v>
       </c>
       <c r="C9">
-        <v>129.150459</v>
+        <v>129.15045900000001</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -723,24 +954,33 @@
         <v>45780.375</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>48330271</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>35.359577</v>
+        <v>35.359577000000002</v>
       </c>
       <c r="C10">
-        <v>129.18987</v>
+        <v>129.18987000000001</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -749,21 +989,30 @@
         <v>45778.75</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>48330110</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>35.386656</v>
+        <v>35.386656000000002</v>
       </c>
       <c r="C11">
         <v>129.1643</v>
@@ -772,27 +1021,36 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>45779.41666666666</v>
+        <v>45779.416666666657</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <v>48330120</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>35.324256</v>
+        <v>35.324255999999998</v>
       </c>
       <c r="C12">
-        <v>129.167233</v>
+        <v>129.16723300000001</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -801,21 +1059,30 @@
         <v>45778.625</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>48330130</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>35.303509</v>
+        <v>35.303508999999998</v>
       </c>
       <c r="C13">
         <v>129.127129</v>
@@ -824,24 +1091,33 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>45779.45833333334</v>
+        <v>45779.458333333343</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>48330140</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>35.331434</v>
+        <v>35.331434000000002</v>
       </c>
       <c r="C14">
         <v>129.023607</v>
@@ -853,16 +1129,27 @@
         <v>45779.625</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>48330150</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>